--- a/Plate_Layouts/p1p2p3vsGSE66053.xlsx
+++ b/Plate_Layouts/p1p2p3vsGSE66053.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryl/Documents/Daryl/Masters Thesis/Sobi/Extra Data/Plate_Layouts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryl/Documents/Daryl/Masters Thesis/Sobi/Master_Thesis/Plate_Layouts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B8EB7B1-D48E-174F-8077-D16696FB041C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C92812-86E4-7F4F-B98F-2DCB2080EA22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="24700" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="225">
   <si>
     <t>Well number</t>
   </si>
@@ -694,6 +694,15 @@
   </si>
   <si>
     <t>GSE66053</t>
+  </si>
+  <si>
+    <t>SRR1810676</t>
+  </si>
+  <si>
+    <t>SRR1810677</t>
+  </si>
+  <si>
+    <t>SRR1810678</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143:C216"/>
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3406,6 +3415,39 @@
         <v>221</v>
       </c>
     </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217" t="s">
+        <v>50</v>
+      </c>
+      <c r="C217" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>223</v>
+      </c>
+      <c r="B218" t="s">
+        <v>50</v>
+      </c>
+      <c r="C218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>224</v>
+      </c>
+      <c r="B219" t="s">
+        <v>50</v>
+      </c>
+      <c r="C219" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
